--- a/excel/Файл для загрузки данных в базу.xlsx
+++ b/excel/Файл для загрузки данных в базу.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="612" yWindow="552" windowWidth="20796" windowHeight="9468"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Books Shop" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Название</t>
   </si>
@@ -36,16 +34,82 @@
     <t>Дата рождения автора</t>
   </si>
   <si>
+    <t>CLR via C#</t>
+  </si>
+  <si>
+    <t>4th editioin</t>
+  </si>
+  <si>
+    <t>Питер</t>
+  </si>
+  <si>
+    <t>No description!</t>
+  </si>
+  <si>
+    <t>Джеффри Рихтер</t>
+  </si>
+  <si>
+    <t>Game design</t>
+  </si>
+  <si>
+    <t>Gold edition</t>
+  </si>
+  <si>
+    <t>Альпина</t>
+  </si>
+  <si>
+    <t>How to make game that everyone will play</t>
+  </si>
+  <si>
+    <t>Джесси Шелл</t>
+  </si>
+  <si>
+    <t>Архитерктура компьютера</t>
+  </si>
+  <si>
+    <t>5th edition</t>
+  </si>
+  <si>
+    <t>Эндрю Тоненбаум</t>
+  </si>
+  <si>
+    <t>Операционные системы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4th editioin   </t>
+  </si>
+  <si>
+    <t>С# and .NET framework</t>
+  </si>
+  <si>
+    <t>8th</t>
+  </si>
+  <si>
+    <t>apress</t>
+  </si>
+  <si>
+    <t>From professionals for professionals</t>
+  </si>
+  <si>
+    <t>Филип Джепикс</t>
+  </si>
+  <si>
+    <t>Эндрю Троелсен</t>
+  </si>
+  <si>
     <t>Приемы объектно-ориентированного проектирования. Паттерны проектирования</t>
   </si>
   <si>
-    <t>Питер</t>
-  </si>
-  <si>
     <t>Библиотека программиста</t>
   </si>
   <si>
-    <t>В предлагаемой книге описываются простые и изящные решения типичных задач, возникающих в объектно-ориентированном проектировании. Паттерны появились потому, что многие разработчики искали пути повышения гибкости и степени повторного использования своих программ. Найденные решения воплощены в краткой и легко применимой на практике форме. Авторы излагают принципы использования паттернов проектирования и приводят их каталог. Таким образом, книга одновременно решает две задачи. Во-первых, здесь демонстрируется роль паттернов в создании архитектуры сложных систем. Во-вторых, применяя содержащиеся в справочнике паттерны, проектировщик сможет с легкостью разрабатывать собственные приложения.</t>
+    <t xml:space="preserve">В предлагаемой книге описываются простые и изящные решения типичных задач, возникающих в объектно-ориентированном 
+проектировании. Паттерны появились потому, что многие разработчики искали пути повышения гибкости и степени повторного 
+использования своих программ. Найденные решения воплощены в краткой и легко применимой на практике форме. Авторы 
+излагают принципы использования паттернов проектирования и приводят их каталог. Таким образом, книга одновременно решает 
+две задачи. Во-первых, здесь демонстрируется роль паттернов в создании архитектуры сложных систем. Во-вторых, применяя 
+содержащиеся в справочнике паттерны, проектировщик сможет с легкостью разрабатывать собственные приложения.
+</t>
   </si>
   <si>
     <t>Джонсон Ральф</t>
@@ -70,45 +134,28 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,12 +170,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD8E4BC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -171,27 +212,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -201,9 +240,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -241,7 +280,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -275,7 +314,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -310,10 +348,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -487,144 +524,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.33203125" customWidth="1"/>
-    <col min="2" max="2" width="39.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" customWidth="1"/>
-    <col min="4" max="4" width="131.109375" customWidth="1"/>
-    <col min="5" max="5" width="32.88671875" customWidth="1"/>
-    <col min="6" max="6" width="45.5546875" customWidth="1"/>
+    <col min="1" max="1" width="102.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="163.21875" customWidth="1"/>
+    <col min="5" max="5" width="24.21875" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6">
+        <v>12</v>
+      </c>
+      <c r="B1" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4">
+        <v>44551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4">
+        <v>44551</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4">
+        <v>40889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="4">
+        <v>37217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="158.4" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="4">
+        <v>40889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="4">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="4">
+        <v>40889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="4">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3">
-        <v>40889</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3">
-        <v>44278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="5">
-        <v>40889</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="5">
-        <v>44278</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="5"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" display="https://www.ozon.ru/person/vlissides-dzhon-326220/"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>